--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737700.3935370479</v>
+        <v>731838.0735018683</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10530900.09829022</v>
+        <v>10529720.13950938</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>67.99363535952548</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>319.9096767956527</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968084</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>74.77447163688156</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>63.60381974109103</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.76189161955232</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>58.08642953901862</v>
       </c>
       <c r="H5" t="n">
-        <v>218.6084345463944</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461484</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>111.2470025925431</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1105,19 +1105,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>56.74603282013119</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>72.30123682227979</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>354.4586443380841</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.98476809241017</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>31.27343809543776</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>114.9652611068538</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.84530282097754</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>8.688300182605998</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>237.5639890118032</v>
       </c>
       <c r="X14" t="n">
-        <v>53.92875199688859</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>59.38016858988839</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>70.11850664068228</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665137</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.13637826023</v>
+        <v>527.0781249834572</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>527.0781249834572</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>527.0781249834572</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>527.0781249834572</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>110.183686513435</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1921.011251721707</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964319</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964319</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.276500964319</v>
+        <v>1695.062614805965</v>
       </c>
       <c r="W2" t="n">
-        <v>1599.277465932606</v>
+        <v>1324.063579774253</v>
       </c>
       <c r="X2" t="n">
-        <v>1599.277465932606</v>
+        <v>1324.063579774253</v>
       </c>
       <c r="Y2" t="n">
-        <v>1276.13637826023</v>
+        <v>927.5728706948541</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475492</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475492</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>176.123748410183</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202752</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430367</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.1488968984746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>332.1488968984746</v>
+        <v>772.7451513638802</v>
       </c>
       <c r="D4" t="n">
-        <v>332.1488968984746</v>
+        <v>708.4988687971215</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>552.940056656324</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>395.614121869297</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>883.5670338357495</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>883.5670338357495</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>883.5670338357495</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>598.1282420776504</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>332.1488968984746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>332.1488968984746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>332.1488968984746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>332.1488968984746</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.7297746312117</v>
+        <v>1451.166989664945</v>
       </c>
       <c r="C5" t="n">
-        <v>671.7297746312117</v>
+        <v>1057.991488167875</v>
       </c>
       <c r="D5" t="n">
-        <v>286.2886458478795</v>
+        <v>1057.991488167875</v>
       </c>
       <c r="E5" t="n">
-        <v>286.2886458478795</v>
+        <v>655.4079632844198</v>
       </c>
       <c r="F5" t="n">
-        <v>273.4346114182613</v>
+        <v>238.5135248143976</v>
       </c>
       <c r="G5" t="n">
-        <v>264.3122599466685</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1706.678668603073</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653166</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737746</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737746</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441265</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="W5" t="n">
-        <v>1461.677125409552</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="X5" t="n">
-        <v>1072.224520342609</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="Y5" t="n">
-        <v>1072.224520342609</v>
+        <v>1851.661735376342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021411</v>
+        <v>578.7527533920138</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622333</v>
+        <v>428.098522952106</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837136</v>
+        <v>298.0095555735863</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946013</v>
+        <v>161.5630646844741</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777331</v>
+        <v>161.5630646844741</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653847</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653847</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1938.874585025552</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>1761.89077322446</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1551.827629903102</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1329.287628274169</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1099.170382407456</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675951</v>
+        <v>909.8633047574679</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431024</v>
+        <v>730.5490878329751</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>560.9063836805942</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>560.9063836805942</v>
+        <v>307.4825919355143</v>
       </c>
       <c r="V7" t="n">
-        <v>560.9063836805942</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="W7" t="n">
-        <v>277.5759816117719</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>807.6498577551392</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>414.4743562580698</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>414.4743562580698</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>414.4743562580698</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1208.144603466536</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.0409408113302</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>859.9184901272292</v>
       </c>
       <c r="X10" t="n">
-        <v>713.0409408113302</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.0409408113302</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1702.435468430418</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179665</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E11" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185757</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2989.829858835217</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.627098949698</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>2058.719233773155</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1734.02479983995</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>402.1207374143125</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="C13" t="n">
-        <v>303.7118946264956</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="D13" t="n">
-        <v>219.8750566752043</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1478.70708340948</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1347.687274738223</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1183.764498052651</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U13" t="n">
-        <v>970.1219814407459</v>
+        <v>1152.070316531345</v>
       </c>
       <c r="V13" t="n">
-        <v>775.938911407764</v>
+        <v>957.8872464983635</v>
       </c>
       <c r="W13" t="n">
-        <v>564.4047844851356</v>
+        <v>746.353119575735</v>
       </c>
       <c r="X13" t="n">
-        <v>402.1207374143125</v>
+        <v>737.5770587852237</v>
       </c>
       <c r="Y13" t="n">
-        <v>402.1207374143125</v>
+        <v>586.2612727480609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1398.198638179665</v>
+        <v>1378.211384164738</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2349.260618583895</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.591542678073</v>
+        <v>2031.604288663146</v>
       </c>
       <c r="Y14" t="n">
-        <v>1726.897108744868</v>
+        <v>1706.909854729941</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.3326729474577</v>
+        <v>532.984059534547</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9238301596409</v>
+        <v>473.0040912619326</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083496</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>305.4047163160376</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,10 +5437,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907707</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.705150907707</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.878376523179</v>
+        <v>1171.529763110269</v>
       </c>
       <c r="W16" t="n">
-        <v>998.3442496005507</v>
+        <v>959.9956361876405</v>
       </c>
       <c r="X16" t="n">
-        <v>836.0602025297277</v>
+        <v>797.7115891168174</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.7444164925649</v>
+        <v>646.3958030796545</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5683,16 +5683,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924224</v>
@@ -5750,7 +5750,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
         <v>565.7512566404064</v>
@@ -5786,13 +5786,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222409</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5999,7 +5999,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
         <v>1740.468202408463</v>
@@ -6139,28 +6139,28 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6206,49 +6206,49 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1249.152663612379</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1888.204925386533</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2509.067570753568</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3042.15853337547</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
@@ -6376,34 +6376,34 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796863</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6461,19 +6461,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647883</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3081.259099401327</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>143.5810516071592</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927171011</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805489</v>
+        <v>501.1958531658835</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188129</v>
+        <v>799.1395520791302</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770925</v>
+        <v>982.3291861103394</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7263,13 +7263,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7336,16 +7336,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
         <v>1089.200323498045</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7737,13 +7737,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1974.833293963354</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K46" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376783</v>
+        <v>305.2720051970439</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0281135391688</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837484</v>
+        <v>574.4602701392428</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886031</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>521.7695639027347</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405007</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760106</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886031</v>
+        <v>567.4452609440975</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,22 +8535,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>388.2984090135469</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>324.3235533562099</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>335.1420048916687</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O24" t="n">
         <v>92.68755888888889</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>457.6168628059747</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286867</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10911,7 +10911,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>457.616862805975</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>457.616862805975</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>294.1380477641132</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>152.642167701931</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>33.73836425803929</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>151.9729064175088</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>58.64674327486023</v>
       </c>
       <c r="X14" t="n">
-        <v>260.5510146246532</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.04458577005035</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>122.1227326919698</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>923400.2935966398</v>
+        <v>922798.7459828795</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>923400.2935966398</v>
+        <v>922798.7459828795</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822603.7031063158</v>
+        <v>822603.7031063159</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927469.4764510971</v>
+        <v>927469.4764510969</v>
       </c>
     </row>
     <row r="8">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867136</v>
       </c>
       <c r="C2" t="n">
         <v>360664.3561867134</v>
       </c>
       <c r="D2" t="n">
+        <v>360664.3561867135</v>
+      </c>
+      <c r="E2" t="n">
+        <v>318718.0468488017</v>
+      </c>
+      <c r="F2" t="n">
+        <v>318718.0468488016</v>
+      </c>
+      <c r="G2" t="n">
         <v>360664.3561867136</v>
       </c>
-      <c r="E2" t="n">
-        <v>318718.0468488015</v>
-      </c>
-      <c r="F2" t="n">
-        <v>318718.0468488015</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>360664.3561867138</v>
-      </c>
-      <c r="H2" t="n">
-        <v>360664.3561867137</v>
       </c>
       <c r="I2" t="n">
         <v>360664.3561867137</v>
@@ -26341,19 +26341,19 @@
         <v>360664.3561867137</v>
       </c>
       <c r="L2" t="n">
-        <v>360664.3561867141</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="M2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867138</v>
       </c>
       <c r="N2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="O2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867138</v>
       </c>
       <c r="P2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867136</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539661</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541669</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805105</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805105</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="J4" t="n">
         <v>148402.4904640164</v>
@@ -26445,13 +26445,13 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.9165635329</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-77170.39959932255</v>
+        <v>-73420.50139878839</v>
       </c>
       <c r="C6" t="n">
-        <v>105034.5486925328</v>
+        <v>100438.1556352668</v>
       </c>
       <c r="D6" t="n">
-        <v>99018.74703475958</v>
+        <v>91282.45781136837</v>
       </c>
       <c r="E6" t="n">
-        <v>53516.38416686541</v>
+        <v>53306.65262017605</v>
       </c>
       <c r="F6" t="n">
-        <v>165638.9456409099</v>
+        <v>165429.2140942205</v>
       </c>
       <c r="G6" t="n">
-        <v>107417.263334879</v>
+        <v>107417.2633348788</v>
       </c>
       <c r="H6" t="n">
         <v>154842.5888715609</v>
@@ -26543,22 +26543,22 @@
         <v>154842.5888715608</v>
       </c>
       <c r="J6" t="n">
-        <v>-58199.32872572458</v>
+        <v>-51683.04357115169</v>
       </c>
       <c r="K6" t="n">
-        <v>148602.8204687779</v>
+        <v>148602.8204687778</v>
       </c>
       <c r="L6" t="n">
-        <v>93420.23153415715</v>
+        <v>89371.39432368432</v>
       </c>
       <c r="M6" t="n">
-        <v>112641.7594119377</v>
+        <v>111590.0644007498</v>
       </c>
       <c r="N6" t="n">
         <v>154842.5888715608</v>
       </c>
       <c r="O6" t="n">
-        <v>127074.8948287896</v>
+        <v>127074.8948287898</v>
       </c>
       <c r="P6" t="n">
         <v>154842.5888715608</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660702</v>
+        <v>78.07030221924576</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551336</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,13 +27385,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>341.0374925973514</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.61612519295221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627223</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>153.0416017711644</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>90.47296222541937</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.90008785419649</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,10 +27591,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>350.9446984178582</v>
       </c>
       <c r="H5" t="n">
-        <v>102.2337853827798</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027058</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>22.33436773658673</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>176.615828493317</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>58.26684974723793</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27901,10 +27901,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>133.0184559269793</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28825,7 +28825,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28980,10 +28980,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668787</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29217,25 +29217,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599618</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683160352</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566225</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.8683420224763</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045018</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>28.01250026485198</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30876,14 +30876,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>35.71049010668825</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135819</v>
+        <v>155.7081677729475</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>133.9677666822506</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344365</v>
+        <v>482.0731480899309</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>372.2057264786383</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995755</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>3.704701200682839</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344365</v>
+        <v>482.0731480899309</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>231.936431306898</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528801</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>249.769892037502</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,10 +36528,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242072</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>372.244749951808</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238012</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>395.1996343381912</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>299.4926067837689</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738832896</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455031723</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624702</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>149.0995364028101</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>372.2447499518083</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,7 +37716,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.7547461184307</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K46" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
